--- a/VersionRecords/Version 5.3.3 20170314/版本Bug和特性计划及评审表v5.3.3_EQ组.xlsx
+++ b/VersionRecords/Version 5.3.3 20170314/版本Bug和特性计划及评审表v5.3.3_EQ组.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27810" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16340"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本5.2.10.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.3.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="2" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="3" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="4" r:id="rId4"/>
@@ -17,19 +17,24 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.10.4 新特性|Fix Bug'!$A$1:$W$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.3 新特性|Fix Bug'!$A$1:$W$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -309,14 +314,22 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ-526</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ-278</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -475,6 +488,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -655,7 +675,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +708,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,8 +1025,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="16">
     <cellStyle name="常规 2" xfId="8"/>
     <cellStyle name="常规 2 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="9"/>
@@ -1012,7 +1037,10 @@
     <cellStyle name="常规 7" xfId="13"/>
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
@@ -1027,7 +1055,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4">
     <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1371,40 +1399,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="60" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="60" customWidth="1"/>
-    <col min="4" max="4" width="45.75" style="61" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="60" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="61" customWidth="1"/>
     <col min="5" max="5" width="15" style="60" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="60" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="61" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="60" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="61" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="61" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="60" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="60" customWidth="1"/>
-    <col min="14" max="15" width="11.375" style="60" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="60" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="61" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="61" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="60" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="60" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" style="60" customWidth="1"/>
     <col min="16" max="16" width="10" style="61" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="61" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="61" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="61" customWidth="1"/>
     <col min="19" max="20" width="12" style="62" customWidth="1"/>
     <col min="21" max="21" width="17" style="62" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="62" customWidth="1"/>
-    <col min="23" max="23" width="41.875" style="61" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="62" customWidth="1"/>
+    <col min="23" max="23" width="41.83203125" style="61" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="58" customFormat="1" ht="27">
+    <row r="1" spans="1:24" s="58" customFormat="1" ht="28">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="59" customFormat="1" ht="33">
+    <row r="2" spans="1:24" s="59" customFormat="1" ht="30">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -1528,7 +1556,9 @@
       <c r="R2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="84"/>
+      <c r="S2" s="84" t="s">
+        <v>89</v>
+      </c>
       <c r="T2" s="84"/>
       <c r="U2" s="75"/>
       <c r="V2" s="83" t="s">
@@ -1537,7 +1567,7 @@
       <c r="W2" s="85"/>
       <c r="X2" s="86"/>
     </row>
-    <row r="3" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="3" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A3" s="64">
         <v>2</v>
       </c>
@@ -1590,14 +1620,16 @@
       <c r="R3" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="84"/>
+      <c r="S3" s="84" t="s">
+        <v>90</v>
+      </c>
       <c r="T3" s="75"/>
       <c r="U3" s="75"/>
       <c r="V3" s="83"/>
       <c r="W3" s="87"/>
       <c r="X3" s="86"/>
     </row>
-    <row r="4" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="4" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -1623,7 +1655,7 @@
       <c r="W4" s="87"/>
       <c r="X4" s="86"/>
     </row>
-    <row r="5" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="5" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A5" s="64"/>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
@@ -1649,7 +1681,7 @@
       <c r="W5" s="87"/>
       <c r="X5" s="86"/>
     </row>
-    <row r="6" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="6" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A6" s="64"/>
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
@@ -1675,7 +1707,7 @@
       <c r="W6" s="87"/>
       <c r="X6" s="86"/>
     </row>
-    <row r="7" spans="1:24" s="59" customFormat="1" ht="17.25">
+    <row r="7" spans="1:24" s="59" customFormat="1" ht="16">
       <c r="A7" s="64"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
@@ -1701,7 +1733,7 @@
       <c r="W7" s="87"/>
       <c r="X7" s="86"/>
     </row>
-    <row r="8" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="8" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
@@ -1727,7 +1759,7 @@
       <c r="W8" s="87"/>
       <c r="X8" s="86"/>
     </row>
-    <row r="9" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="9" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A9" s="64"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -1753,7 +1785,7 @@
       <c r="W9" s="87"/>
       <c r="X9" s="86"/>
     </row>
-    <row r="10" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="10" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A10" s="64"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
@@ -1779,7 +1811,7 @@
       <c r="W10" s="87"/>
       <c r="X10" s="86"/>
     </row>
-    <row r="11" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="11" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A11" s="64"/>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
@@ -1805,7 +1837,7 @@
       <c r="W11" s="87"/>
       <c r="X11" s="86"/>
     </row>
-    <row r="12" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="12" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A12" s="64"/>
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
@@ -1831,7 +1863,7 @@
       <c r="W12" s="87"/>
       <c r="X12" s="86"/>
     </row>
-    <row r="13" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="13" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
@@ -1857,7 +1889,7 @@
       <c r="W13" s="87"/>
       <c r="X13" s="86"/>
     </row>
-    <row r="14" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="14" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
@@ -1883,7 +1915,7 @@
       <c r="W14" s="87"/>
       <c r="X14" s="86"/>
     </row>
-    <row r="15" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="15" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A15" s="64"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -1909,7 +1941,7 @@
       <c r="W15" s="87"/>
       <c r="X15" s="86"/>
     </row>
-    <row r="16" spans="1:24" s="59" customFormat="1" ht="16.5">
+    <row r="16" spans="1:24" s="59" customFormat="1" ht="15">
       <c r="A16" s="64"/>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
@@ -1935,7 +1967,7 @@
       <c r="W16" s="90"/>
       <c r="X16" s="86"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
+    <row r="17" spans="1:23" ht="15">
       <c r="A17" s="64"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -1960,7 +1992,7 @@
       <c r="V17" s="75"/>
       <c r="W17" s="76"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5">
+    <row r="18" spans="1:23" ht="15">
       <c r="A18" s="64"/>
       <c r="B18" s="64"/>
       <c r="C18" s="64"/>
@@ -1985,7 +2017,7 @@
       <c r="V18" s="75"/>
       <c r="W18" s="76"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5">
+    <row r="19" spans="1:23" ht="15">
       <c r="A19" s="64"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
@@ -2010,7 +2042,7 @@
       <c r="V19" s="75"/>
       <c r="W19" s="76"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5">
+    <row r="20" spans="1:23" ht="15">
       <c r="A20" s="64"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
@@ -2035,7 +2067,7 @@
       <c r="V20" s="75"/>
       <c r="W20" s="87"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5">
+    <row r="21" spans="1:23" ht="15">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -2060,7 +2092,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="87"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5">
+    <row r="22" spans="1:23" ht="15">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -2085,7 +2117,7 @@
       <c r="V22" s="75"/>
       <c r="W22" s="87"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5">
+    <row r="23" spans="1:23" ht="15">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -2110,7 +2142,7 @@
       <c r="V23" s="91"/>
       <c r="W23" s="92"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5">
+    <row r="24" spans="1:23" ht="15">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -2135,7 +2167,7 @@
       <c r="V24" s="93"/>
       <c r="W24" s="92"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5">
+    <row r="25" spans="1:23" ht="15">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -2160,7 +2192,7 @@
       <c r="V25" s="94"/>
       <c r="W25" s="92"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5">
+    <row r="26" spans="1:23" ht="15">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -2185,7 +2217,7 @@
       <c r="V26" s="93"/>
       <c r="W26" s="92"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5">
+    <row r="27" spans="1:23" ht="15">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -2210,7 +2242,7 @@
       <c r="V27" s="93"/>
       <c r="W27" s="92"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5">
+    <row r="28" spans="1:23" ht="15">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -2235,7 +2267,7 @@
       <c r="V28" s="89"/>
       <c r="W28" s="78"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5">
+    <row r="29" spans="1:23" ht="15">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -2260,7 +2292,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="87"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5">
+    <row r="30" spans="1:23" ht="15">
       <c r="A30" s="64"/>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
@@ -2285,7 +2317,7 @@
       <c r="V30" s="75"/>
       <c r="W30" s="87"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5">
+    <row r="31" spans="1:23" ht="15">
       <c r="A31" s="64"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
@@ -2310,7 +2342,7 @@
       <c r="V31" s="75"/>
       <c r="W31" s="87"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
+    <row r="32" spans="1:23" ht="15">
       <c r="A32" s="64"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
@@ -2335,7 +2367,7 @@
       <c r="V32" s="93"/>
       <c r="W32" s="92"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
+    <row r="33" spans="1:23" ht="15">
       <c r="A33" s="64"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
@@ -2360,7 +2392,7 @@
       <c r="V33" s="75"/>
       <c r="W33" s="85"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
+    <row r="34" spans="1:23" ht="15">
       <c r="A34" s="64"/>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
@@ -2385,7 +2417,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="87"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
+    <row r="35" spans="1:23" ht="15">
       <c r="A35" s="64"/>
       <c r="B35" s="64"/>
       <c r="C35" s="64"/>
@@ -2410,7 +2442,7 @@
       <c r="V35" s="75"/>
       <c r="W35" s="87"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
+    <row r="36" spans="1:23" ht="15">
       <c r="A36" s="64"/>
       <c r="B36" s="64"/>
       <c r="C36" s="64"/>
@@ -2435,7 +2467,7 @@
       <c r="V36" s="75"/>
       <c r="W36" s="87"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
+    <row r="37" spans="1:23" ht="15">
       <c r="A37" s="64"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
@@ -2460,7 +2492,7 @@
       <c r="V37" s="75"/>
       <c r="W37" s="87"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
+    <row r="38" spans="1:23" ht="15">
       <c r="A38" s="64"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
@@ -2485,7 +2517,7 @@
       <c r="V38" s="75"/>
       <c r="W38" s="87"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
+    <row r="39" spans="1:23" ht="15">
       <c r="A39" s="64"/>
       <c r="B39" s="64"/>
       <c r="C39" s="64"/>
@@ -2510,7 +2542,7 @@
       <c r="V39" s="75"/>
       <c r="W39" s="87"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
+    <row r="40" spans="1:23" ht="15">
       <c r="A40" s="64"/>
       <c r="B40" s="64"/>
       <c r="C40" s="64"/>
@@ -2535,7 +2567,7 @@
       <c r="V40" s="75"/>
       <c r="W40" s="87"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5">
+    <row r="41" spans="1:23" ht="15">
       <c r="A41" s="64"/>
       <c r="B41" s="64"/>
       <c r="C41" s="64"/>
@@ -2560,7 +2592,7 @@
       <c r="V41" s="75"/>
       <c r="W41" s="87"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5">
+    <row r="42" spans="1:23" ht="15">
       <c r="A42" s="64"/>
       <c r="B42" s="64"/>
       <c r="C42" s="64"/>
@@ -2585,7 +2617,7 @@
       <c r="V42" s="75"/>
       <c r="W42" s="87"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
+    <row r="43" spans="1:23" ht="15">
       <c r="A43" s="64"/>
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
@@ -2610,7 +2642,7 @@
       <c r="V43" s="75"/>
       <c r="W43" s="87"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
+    <row r="44" spans="1:23" ht="15">
       <c r="A44" s="64"/>
       <c r="B44" s="64"/>
       <c r="C44" s="64"/>
@@ -2635,7 +2667,7 @@
       <c r="V44" s="89"/>
       <c r="W44" s="87"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5">
+    <row r="45" spans="1:23" ht="15">
       <c r="A45" s="64"/>
       <c r="B45" s="64"/>
       <c r="C45" s="64"/>
@@ -2660,7 +2692,7 @@
       <c r="V45" s="89"/>
       <c r="W45" s="87"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5">
+    <row r="46" spans="1:23" ht="15">
       <c r="A46" s="64"/>
       <c r="B46" s="64"/>
       <c r="C46" s="64"/>
@@ -2685,7 +2717,7 @@
       <c r="V46" s="75"/>
       <c r="W46" s="76"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
+    <row r="47" spans="1:23" ht="15">
       <c r="A47" s="64"/>
       <c r="B47" s="64"/>
       <c r="C47" s="64"/>
@@ -2710,7 +2742,7 @@
       <c r="V47" s="75"/>
       <c r="W47" s="76"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
+    <row r="48" spans="1:23" ht="15">
       <c r="A48" s="64"/>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
@@ -2735,7 +2767,7 @@
       <c r="V48" s="75"/>
       <c r="W48" s="76"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
+    <row r="49" spans="1:23" ht="15">
       <c r="A49" s="64"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
@@ -2760,7 +2792,7 @@
       <c r="V49" s="75"/>
       <c r="W49" s="76"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5">
+    <row r="50" spans="1:23" ht="15">
       <c r="A50" s="64"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64"/>
@@ -2785,7 +2817,7 @@
       <c r="V50" s="75"/>
       <c r="W50" s="76"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5">
+    <row r="51" spans="1:23" ht="15">
       <c r="A51" s="64"/>
       <c r="B51" s="64"/>
       <c r="C51" s="64"/>
@@ -2810,7 +2842,7 @@
       <c r="V51" s="75"/>
       <c r="W51" s="76"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5">
+    <row r="52" spans="1:23" ht="15">
       <c r="A52" s="64"/>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -2835,7 +2867,7 @@
       <c r="V52" s="75"/>
       <c r="W52" s="76"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5">
+    <row r="53" spans="1:23" ht="15">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -2860,7 +2892,7 @@
       <c r="V53" s="75"/>
       <c r="W53" s="76"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5">
+    <row r="54" spans="1:23" ht="15">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
@@ -2885,7 +2917,7 @@
       <c r="V54" s="75"/>
       <c r="W54" s="76"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5">
+    <row r="55" spans="1:23" ht="15">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
@@ -2910,7 +2942,7 @@
       <c r="V55" s="75"/>
       <c r="W55" s="76"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5">
+    <row r="56" spans="1:23" ht="15">
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -2935,7 +2967,7 @@
       <c r="V56" s="75"/>
       <c r="W56" s="76"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5">
+    <row r="57" spans="1:23" ht="15">
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -2960,7 +2992,7 @@
       <c r="V57" s="75"/>
       <c r="W57" s="76"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5">
+    <row r="58" spans="1:23" ht="15">
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -2985,7 +3017,7 @@
       <c r="V58" s="75"/>
       <c r="W58" s="76"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5">
+    <row r="59" spans="1:23" ht="15">
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -3010,7 +3042,7 @@
       <c r="V59" s="75"/>
       <c r="W59" s="76"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5">
+    <row r="60" spans="1:23" ht="15">
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -3035,7 +3067,7 @@
       <c r="V60" s="75"/>
       <c r="W60" s="76"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5">
+    <row r="61" spans="1:23" ht="15">
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -3060,7 +3092,7 @@
       <c r="V61" s="75"/>
       <c r="W61" s="76"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5">
+    <row r="62" spans="1:23" ht="15">
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -3085,7 +3117,7 @@
       <c r="V62" s="75"/>
       <c r="W62" s="76"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5">
+    <row r="63" spans="1:23" ht="15">
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -3110,7 +3142,7 @@
       <c r="V63" s="75"/>
       <c r="W63" s="76"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5">
+    <row r="64" spans="1:23" ht="15">
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -3135,7 +3167,7 @@
       <c r="V64" s="75"/>
       <c r="W64" s="76"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
+    <row r="65" spans="1:23" ht="15">
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
@@ -3160,7 +3192,7 @@
       <c r="V65" s="75"/>
       <c r="W65" s="76"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5">
+    <row r="66" spans="1:23" ht="15">
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -3185,7 +3217,7 @@
       <c r="V66" s="75"/>
       <c r="W66" s="76"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5">
+    <row r="67" spans="1:23" ht="15">
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -3210,7 +3242,7 @@
       <c r="V67" s="75"/>
       <c r="W67" s="76"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5">
+    <row r="68" spans="1:23" ht="15">
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
@@ -3235,7 +3267,7 @@
       <c r="V68" s="75"/>
       <c r="W68" s="76"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5">
+    <row r="69" spans="1:23" ht="15">
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
@@ -3260,7 +3292,7 @@
       <c r="V69" s="75"/>
       <c r="W69" s="76"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5">
+    <row r="70" spans="1:23" ht="15">
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -3285,7 +3317,7 @@
       <c r="V70" s="75"/>
       <c r="W70" s="76"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5">
+    <row r="71" spans="1:23" ht="15">
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -3310,7 +3342,7 @@
       <c r="V71" s="75"/>
       <c r="W71" s="76"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5">
+    <row r="72" spans="1:23" ht="15">
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -3335,7 +3367,7 @@
       <c r="V72" s="75"/>
       <c r="W72" s="76"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5">
+    <row r="73" spans="1:23" ht="15">
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -3360,7 +3392,7 @@
       <c r="V73" s="75"/>
       <c r="W73" s="76"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5">
+    <row r="74" spans="1:23" ht="15">
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -3385,7 +3417,7 @@
       <c r="V74" s="75"/>
       <c r="W74" s="76"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5">
+    <row r="75" spans="1:23" ht="15">
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -3410,7 +3442,7 @@
       <c r="V75" s="75"/>
       <c r="W75" s="76"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5">
+    <row r="76" spans="1:23" ht="15">
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -3435,7 +3467,7 @@
       <c r="V76" s="75"/>
       <c r="W76" s="76"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5">
+    <row r="77" spans="1:23" ht="15">
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -3460,7 +3492,7 @@
       <c r="V77" s="75"/>
       <c r="W77" s="76"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5">
+    <row r="78" spans="1:23" ht="15">
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -5648,37 +5680,46 @@
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="44.375" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.875" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1">
@@ -5800,29 +5841,34 @@
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="96" t="s">
         <v>83</v>
       </c>
@@ -5837,7 +5883,7 @@
       <c r="J1" s="97"/>
       <c r="K1" s="97"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="24" t="s">
         <v>48</v>
       </c>
@@ -5872,7 +5918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="95">
         <v>1</v>
       </c>
@@ -5897,7 +5943,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="95"/>
       <c r="B4" s="95"/>
       <c r="C4" s="26"/>
@@ -5910,7 +5956,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="34"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5">
+    <row r="5" spans="1:11">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="26"/>
@@ -5929,30 +5975,36 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -5987,7 +6039,7 @@
       <c r="L2" s="100"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -6028,7 +6080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -6042,7 +6094,7 @@
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="111.95" customHeight="1">
+    <row r="5" spans="1:13" ht="112" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -6057,7 +6109,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6072,7 +6124,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6087,7 +6139,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6102,7 +6154,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6117,7 +6169,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6132,7 +6184,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6147,7 +6199,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6162,7 +6214,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6177,7 +6229,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6192,7 +6244,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6207,7 +6259,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6242,30 +6294,35 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6300,7 +6357,7 @@
       <c r="L2" s="100"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -6341,7 +6398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -6355,7 +6412,7 @@
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="111.95" customHeight="1">
+    <row r="5" spans="1:13" ht="112" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -6370,7 +6427,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6385,7 +6442,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6400,7 +6457,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6415,7 +6472,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6430,7 +6487,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6445,7 +6502,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6460,7 +6517,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6475,7 +6532,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6490,7 +6547,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6505,7 +6562,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6520,7 +6577,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6555,30 +6612,35 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6613,7 +6675,7 @@
       <c r="L2" s="100"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -6654,7 +6716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -6668,7 +6730,7 @@
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="111.95" customHeight="1">
+    <row r="5" spans="1:13" ht="112" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -6683,7 +6745,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6698,7 +6760,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6713,7 +6775,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6728,7 +6790,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6743,7 +6805,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6758,7 +6820,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6773,7 +6835,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6788,7 +6850,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6803,7 +6865,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6818,7 +6880,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6833,7 +6895,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6868,32 +6930,37 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6928,7 +6995,7 @@
       <c r="L2" s="100"/>
       <c r="M2" s="101"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -6969,7 +7036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6984,7 +7051,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6999,7 +7066,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7014,7 +7081,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7029,7 +7096,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7044,7 +7111,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7059,7 +7126,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7074,7 +7141,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7089,7 +7156,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7104,7 +7171,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7119,7 +7186,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7134,7 +7201,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7149,7 +7216,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7184,26 +7251,31 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7420,5 +7492,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>